--- a/results/real_data_freelancer_0.1_opt_constrained/k=0.1/CSG/dataset_12/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/real_data_freelancer_0.1_opt_constrained/k=0.1/CSG/dataset_12/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_freelancer_0.1_opt_constrained\k=0.1\CSG\dataset_12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7373B8D7-750C-4D26-B3FF-ECD84245739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_CSG_dataset_12_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +692,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.9852941176470589</v>
+        <v>0.98529411764705888</v>
       </c>
       <c r="O2">
         <v>103</v>
@@ -612,19 +701,19 @@
         <v>35</v>
       </c>
       <c r="Q2">
-        <v>1.079380926740222</v>
+        <v>1.0793809267402219</v>
       </c>
       <c r="R2">
-        <v>30.22166756409223</v>
+        <v>30.221667564092229</v>
       </c>
       <c r="S2">
-        <v>2.942857142857143</v>
+        <v>2.9428571428571431</v>
       </c>
       <c r="T2">
-        <v>3.03030303030303</v>
+        <v>3.0303030303030298</v>
       </c>
       <c r="U2">
-        <v>1.108662624521611</v>
+        <v>1.1086626245216109</v>
       </c>
       <c r="V2">
         <v>30.41413339078683</v>
@@ -642,7 +731,7 @@
         <v>1.001223990208078</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +772,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9647058823529412</v>
+        <v>0.96470588235294119</v>
       </c>
       <c r="O3">
         <v>115</v>
@@ -692,22 +781,22 @@
         <v>30</v>
       </c>
       <c r="Q3">
-        <v>1.343734746701095</v>
+        <v>1.3437347467010949</v>
       </c>
       <c r="R3">
-        <v>44.68795759896716</v>
+        <v>44.687957598967159</v>
       </c>
       <c r="S3">
         <v>3.833333333333333</v>
       </c>
       <c r="T3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="U3">
         <v>1.62924053973028</v>
       </c>
       <c r="V3">
-        <v>49.4151892053944</v>
+        <v>49.415189205394398</v>
       </c>
       <c r="W3">
         <v>873</v>
@@ -719,10 +808,10 @@
         <v>870</v>
       </c>
       <c r="Z3">
-        <v>1.003448275862069</v>
+        <v>1.0034482758620691</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.9587628865979382</v>
+        <v>0.95876288659793818</v>
       </c>
       <c r="O4">
         <v>131</v>
@@ -772,22 +861,22 @@
         <v>34</v>
       </c>
       <c r="Q4">
-        <v>1.34883679858499</v>
+        <v>1.3488367985849901</v>
       </c>
       <c r="R4">
         <v>51.13954884811033</v>
       </c>
       <c r="S4">
-        <v>3.852941176470588</v>
+        <v>3.8529411764705879</v>
       </c>
       <c r="T4">
-        <v>4.321428571428571</v>
+        <v>4.3214285714285712</v>
       </c>
       <c r="U4">
-        <v>1.463586035421537</v>
+        <v>1.4635860354215371</v>
       </c>
       <c r="V4">
-        <v>52.01959100819696</v>
+        <v>52.019591008196961</v>
       </c>
       <c r="W4">
         <v>843</v>
@@ -799,10 +888,10 @@
         <v>839</v>
       </c>
       <c r="Z4">
-        <v>1.00476758045292</v>
+        <v>1.0047675804529199</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -852,10 +941,10 @@
         <v>31</v>
       </c>
       <c r="Q5">
-        <v>1.402294702466332</v>
+        <v>1.4022947024663319</v>
       </c>
       <c r="R5">
-        <v>51.52886422354372</v>
+        <v>51.528864223543721</v>
       </c>
       <c r="S5">
         <v>4.064516129032258</v>
@@ -864,10 +953,10 @@
         <v>4.064516129032258</v>
       </c>
       <c r="U5">
-        <v>1.402294702466332</v>
+        <v>1.4022947024663319</v>
       </c>
       <c r="V5">
-        <v>51.52886422354372</v>
+        <v>51.528864223543721</v>
       </c>
       <c r="W5">
         <v>839</v>
@@ -882,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9090909090909091</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="O6">
         <v>122</v>
@@ -935,19 +1024,19 @@
         <v>1.277660520117095</v>
       </c>
       <c r="R6">
-        <v>44.55954231601876</v>
+        <v>44.559542316018756</v>
       </c>
       <c r="S6">
-        <v>3.588235294117647</v>
+        <v>3.5882352941176472</v>
       </c>
       <c r="T6">
-        <v>4.478260869565218</v>
+        <v>4.4782608695652177</v>
       </c>
       <c r="U6">
         <v>1.499234772300486</v>
       </c>
       <c r="V6">
-        <v>45.51760023708881</v>
+        <v>45.517600237088807</v>
       </c>
       <c r="W6">
         <v>809</v>
@@ -959,10 +1048,10 @@
         <v>801</v>
       </c>
       <c r="Z6">
-        <v>1.009987515605493</v>
+        <v>1.0099875156054929</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1012,22 +1101,22 @@
         <v>24</v>
       </c>
       <c r="Q7">
-        <v>1.666133256110646</v>
+        <v>1.6661332561106461</v>
       </c>
       <c r="R7">
-        <v>63.01280185334451</v>
+        <v>63.012801853344513</v>
       </c>
       <c r="S7">
         <v>5.291666666666667</v>
       </c>
       <c r="T7">
-        <v>6.263157894736842</v>
+        <v>6.2631578947368416</v>
       </c>
       <c r="U7">
-        <v>1.834684513945089</v>
+        <v>1.8346845139450889</v>
       </c>
       <c r="V7">
-        <v>65.14099423504331</v>
+        <v>65.140994235043308</v>
       </c>
       <c r="W7">
         <v>813</v>
@@ -1042,7 +1131,7 @@
         <v>1.003703703703704</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1092,10 +1181,10 @@
         <v>25</v>
       </c>
       <c r="Q8">
-        <v>1.415853163361435</v>
+        <v>1.4158531633614351</v>
       </c>
       <c r="R8">
-        <v>42.60367091596412</v>
+        <v>42.603670915964123</v>
       </c>
       <c r="S8">
         <v>4.12</v>
@@ -1104,10 +1193,10 @@
         <v>4.12</v>
       </c>
       <c r="U8">
-        <v>1.415853163361435</v>
+        <v>1.4158531633614351</v>
       </c>
       <c r="V8">
-        <v>42.60367091596412</v>
+        <v>42.603670915964123</v>
       </c>
       <c r="W8">
         <v>858</v>
@@ -1122,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1252,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.9752066115702479</v>
+        <v>0.97520661157024791</v>
       </c>
       <c r="O9">
         <v>159</v>
@@ -1172,22 +1261,22 @@
         <v>38</v>
       </c>
       <c r="Q9">
-        <v>1.431318042493846</v>
+        <v>1.4313180424938461</v>
       </c>
       <c r="R9">
-        <v>66.60991438523386</v>
+        <v>66.609914385233864</v>
       </c>
       <c r="S9">
-        <v>4.184210526315789</v>
+        <v>4.1842105263157894</v>
       </c>
       <c r="T9">
         <v>4.806451612903226</v>
       </c>
       <c r="U9">
-        <v>1.569959101460313</v>
+        <v>1.5699591014603129</v>
       </c>
       <c r="V9">
-        <v>69.3312678547303</v>
+        <v>69.331267854730299</v>
       </c>
       <c r="W9">
         <v>892</v>
@@ -1199,10 +1288,10 @@
         <v>889</v>
       </c>
       <c r="Z9">
-        <v>1.003374578177728</v>
+        <v>1.0033745781777279</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1252,22 +1341,22 @@
         <v>27</v>
       </c>
       <c r="Q10">
-        <v>1.449095262358921</v>
+        <v>1.4490952623589211</v>
       </c>
       <c r="R10">
-        <v>48.87442791630913</v>
+        <v>48.874427916309131</v>
       </c>
       <c r="S10">
-        <v>4.25925925925926</v>
+        <v>4.2592592592592604</v>
       </c>
       <c r="T10">
-        <v>4.25925925925926</v>
+        <v>4.2592592592592604</v>
       </c>
       <c r="U10">
-        <v>1.449095262358921</v>
+        <v>1.4490952623589211</v>
       </c>
       <c r="V10">
-        <v>48.87442791630913</v>
+        <v>48.874427916309131</v>
       </c>
       <c r="W10">
         <v>813</v>
@@ -1282,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1335,7 +1424,7 @@
         <v>1.998095902225884</v>
       </c>
       <c r="R11">
-        <v>70.03046556438586</v>
+        <v>70.030465564385864</v>
       </c>
       <c r="S11">
         <v>7.375</v>
@@ -1347,7 +1436,7 @@
         <v>1.998095902225884</v>
       </c>
       <c r="V11">
-        <v>70.03046556438586</v>
+        <v>70.030465564385864</v>
       </c>
       <c r="W11">
         <v>812</v>
@@ -1360,9 +1449,52 @@
       </c>
       <c r="Z11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.97639341936668633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0026505644009993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.0099875156054929</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>